--- a/data/trans_orig/P79_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P79_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A9F577E-A6AA-4A55-A4B0-E3F15B891DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{47964A59-FCD8-4B06-ABE6-579E525F090C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E6C7CE2F-1860-42F6-82BD-192971CAB6C1}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{40636577-7133-400B-B4FE-849954ED378D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="86">
   <si>
     <t>Población que sufre violencia física, emocional o sexual en 2023 (Tasa respuesta: 99,77%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>3,87%</t>
   </si>
   <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
   </si>
   <si>
     <t>0,72%</t>
   </si>
   <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
   </si>
   <si>
     <t>1,96%</t>
   </si>
   <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>96,13%</t>
   </si>
   <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
   </si>
   <si>
     <t>99,28%</t>
   </si>
   <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
   </si>
   <si>
     <t>98,04%</t>
   </si>
   <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,10 +137,10 @@
     <t>1,89%</t>
   </si>
   <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
   </si>
   <si>
     <t>1,68%</t>
@@ -149,37 +149,43 @@
     <t>1,16%</t>
   </si>
   <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
     <t>2,4%</t>
   </si>
   <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
     <t>98,11%</t>
   </si>
   <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
   </si>
   <si>
     <t>98,32%</t>
   </si>
   <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
     <t>97,6%</t>
   </si>
   <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
+    <t>98,63%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -188,97 +194,103 @@
     <t>1,19%</t>
   </si>
   <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
+    <t>0,57%</t>
   </si>
   <si>
     <t>1,52%</t>
   </si>
   <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
   </si>
   <si>
     <t>1,36%</t>
   </si>
   <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
   </si>
   <si>
     <t>98,81%</t>
   </si>
   <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
+    <t>99,43%</t>
   </si>
   <si>
     <t>98,48%</t>
   </si>
   <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
   </si>
   <si>
     <t>98,64%</t>
   </si>
   <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
   </si>
   <si>
     <t>2,07%</t>
   </si>
   <si>
-    <t>1,54%</t>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
   </si>
   <si>
     <t>1,44%</t>
   </si>
   <si>
-    <t>1,11%</t>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
   </si>
   <si>
     <t>1,74%</t>
   </si>
   <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
   </si>
   <si>
     <t>97,93%</t>
   </si>
   <si>
-    <t>98,46%</t>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
   </si>
   <si>
     <t>98,56%</t>
   </si>
   <si>
-    <t>98,89%</t>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
   </si>
   <si>
     <t>98,26%</t>
   </si>
   <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -693,7 +705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D755EDB-B111-4647-A951-A2E1B39EFDF1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D595E91B-3EBC-4926-BD95-397104A50619}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1005,10 +1017,10 @@
         <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1023,13 +1035,13 @@
         <v>2119334</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>2871</v>
@@ -1038,13 +1050,13 @@
         <v>2207401</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>4829</v>
@@ -1053,13 +1065,13 @@
         <v>4326735</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1115,7 +1127,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1127,13 +1139,13 @@
         <v>8025</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -1142,13 +1154,13 @@
         <v>10827</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>22</v>
@@ -1157,13 +1169,13 @@
         <v>18852</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1178,10 +1190,10 @@
         <v>663824</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>60</v>
@@ -1288,7 +1300,7 @@
         <v>68</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="H13" s="7">
         <v>65</v>
@@ -1297,13 +1309,13 @@
         <v>54577</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="M13" s="7">
         <v>126</v>
@@ -1312,13 +1324,13 @@
         <v>124510</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1330,16 +1342,16 @@
         <v>3300</v>
       </c>
       <c r="D14" s="7">
-        <v>3303815</v>
+        <v>3303814</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H14" s="7">
         <v>5275</v>
@@ -1348,13 +1360,13 @@
         <v>3737471</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M14" s="7">
         <v>8575</v>
@@ -1363,13 +1375,13 @@
         <v>7041286</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1381,7 +1393,7 @@
         <v>3361</v>
       </c>
       <c r="D15" s="7">
-        <v>3373748</v>
+        <v>3373747</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1425,7 +1437,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P79_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P79_R-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47964A59-FCD8-4B06-ABE6-579E525F090C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15841481-5960-47C0-9603-79F638DD4510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{40636577-7133-400B-B4FE-849954ED378D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A0D9E60A-490B-4C6D-BCDD-995502112810}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -705,7 +705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D595E91B-3EBC-4926-BD95-397104A50619}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AAA1DFF-D976-4F11-9350-F9EF2307C45E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P79_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P79_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15841481-5960-47C0-9603-79F638DD4510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C481F8AD-7326-48FA-BB17-7F33C533C40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A0D9E60A-490B-4C6D-BCDD-995502112810}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EF5E6379-9AEE-4953-A02A-D6BB09CC3CBA}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="82">
   <si>
     <t>Población que sufre violencia física, emocional o sexual en 2023 (Tasa respuesta: 99,77%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>3,87%</t>
   </si>
   <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
   </si>
   <si>
     <t>0,72%</t>
   </si>
   <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
   </si>
   <si>
     <t>1,96%</t>
   </si>
   <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>96,13%</t>
   </si>
   <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
   </si>
   <si>
     <t>99,28%</t>
   </si>
   <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
   </si>
   <si>
     <t>98,04%</t>
   </si>
   <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,10 +137,10 @@
     <t>1,89%</t>
   </si>
   <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
   </si>
   <si>
     <t>1,68%</t>
@@ -149,31 +149,28 @@
     <t>1,16%</t>
   </si>
   <si>
-    <t>2,34%</t>
+    <t>2,4%</t>
   </si>
   <si>
     <t>1,79%</t>
   </si>
   <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
+    <t>2,42%</t>
   </si>
   <si>
     <t>98,11%</t>
   </si>
   <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
   </si>
   <si>
     <t>98,32%</t>
   </si>
   <si>
-    <t>97,66%</t>
+    <t>97,6%</t>
   </si>
   <si>
     <t>98,84%</t>
@@ -182,10 +179,7 @@
     <t>98,21%</t>
   </si>
   <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
+    <t>97,58%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -194,103 +188,97 @@
     <t>1,19%</t>
   </si>
   <si>
-    <t>0,57%</t>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
   </si>
   <si>
     <t>1,52%</t>
   </si>
   <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
   </si>
   <si>
     <t>1,36%</t>
   </si>
   <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
   </si>
   <si>
     <t>98,81%</t>
   </si>
   <si>
-    <t>99,43%</t>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
   </si>
   <si>
     <t>98,48%</t>
   </si>
   <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
   </si>
   <si>
     <t>98,64%</t>
   </si>
   <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
   </si>
   <si>
     <t>2,07%</t>
   </si>
   <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
+    <t>1,54%</t>
   </si>
   <si>
     <t>1,44%</t>
   </si>
   <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
+    <t>1,11%</t>
   </si>
   <si>
     <t>1,74%</t>
   </si>
   <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
   </si>
   <si>
     <t>97,93%</t>
   </si>
   <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
+    <t>98,46%</t>
   </si>
   <si>
     <t>98,56%</t>
   </si>
   <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
+    <t>98,89%</t>
   </si>
   <si>
     <t>98,26%</t>
   </si>
   <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -705,7 +693,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AAA1DFF-D976-4F11-9350-F9EF2307C45E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90E900E2-0F6C-4A72-9C81-234E8F315DB6}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1017,10 +1005,10 @@
         <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1035,13 +1023,13 @@
         <v>2119334</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>2871</v>
@@ -1050,13 +1038,13 @@
         <v>2207401</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>4829</v>
@@ -1065,13 +1053,13 @@
         <v>4326735</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1127,7 +1115,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1139,13 +1127,13 @@
         <v>8025</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -1154,13 +1142,13 @@
         <v>10827</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>22</v>
@@ -1169,13 +1157,13 @@
         <v>18852</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1190,10 +1178,10 @@
         <v>663824</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>60</v>
@@ -1300,7 +1288,7 @@
         <v>68</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="H13" s="7">
         <v>65</v>
@@ -1309,13 +1297,13 @@
         <v>54577</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>71</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="M13" s="7">
         <v>126</v>
@@ -1324,13 +1312,13 @@
         <v>124510</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1342,16 +1330,16 @@
         <v>3300</v>
       </c>
       <c r="D14" s="7">
-        <v>3303814</v>
+        <v>3303815</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H14" s="7">
         <v>5275</v>
@@ -1360,13 +1348,13 @@
         <v>3737471</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="M14" s="7">
         <v>8575</v>
@@ -1375,13 +1363,13 @@
         <v>7041286</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1393,7 +1381,7 @@
         <v>3361</v>
       </c>
       <c r="D15" s="7">
-        <v>3373747</v>
+        <v>3373748</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1437,7 +1425,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P79_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P79_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C481F8AD-7326-48FA-BB17-7F33C533C40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2B8BF1B-85D5-4136-A8F1-FD8B66FC9F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EF5E6379-9AEE-4953-A02A-D6BB09CC3CBA}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{346DFCE7-EDC8-424E-B484-967348390CB6}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="84">
   <si>
     <t>Población que sufre violencia física, emocional o sexual en 2023 (Tasa respuesta: 99,77%)</t>
   </si>
@@ -71,214 +71,220 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>3,87%</t>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
   </si>
   <si>
     <t>2,32%</t>
   </si>
   <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
   </si>
   <si>
     <t>1,35%</t>
   </si>
   <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
   </si>
   <si>
     <t>98,65%</t>
   </si>
   <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -693,7 +699,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90E900E2-0F6C-4A72-9C81-234E8F315DB6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87A25F5B-DFF7-4CB1-AB89-4B5911C47A50}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -814,7 +820,7 @@
         <v>20</v>
       </c>
       <c r="D4" s="7">
-        <v>20978</v>
+        <v>18744</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -829,7 +835,7 @@
         <v>9</v>
       </c>
       <c r="I4" s="7">
-        <v>6022</v>
+        <v>5275</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -844,7 +850,7 @@
         <v>29</v>
       </c>
       <c r="N4" s="7">
-        <v>27000</v>
+        <v>24019</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -865,7 +871,7 @@
         <v>671</v>
       </c>
       <c r="D5" s="7">
-        <v>520656</v>
+        <v>496194</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -880,7 +886,7 @@
         <v>1414</v>
       </c>
       <c r="I5" s="7">
-        <v>827838</v>
+        <v>748322</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -895,7 +901,7 @@
         <v>2085</v>
       </c>
       <c r="N5" s="7">
-        <v>1348494</v>
+        <v>1244516</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -916,7 +922,7 @@
         <v>691</v>
       </c>
       <c r="D6" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -931,7 +937,7 @@
         <v>1423</v>
       </c>
       <c r="I6" s="7">
-        <v>833860</v>
+        <v>753597</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -946,7 +952,7 @@
         <v>2114</v>
       </c>
       <c r="N6" s="7">
-        <v>1375494</v>
+        <v>1268535</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -969,7 +975,7 @@
         <v>32</v>
       </c>
       <c r="D7" s="7">
-        <v>40930</v>
+        <v>38733</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -984,7 +990,7 @@
         <v>43</v>
       </c>
       <c r="I7" s="7">
-        <v>37727</v>
+        <v>33625</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -999,16 +1005,16 @@
         <v>75</v>
       </c>
       <c r="N7" s="7">
-        <v>78657</v>
+        <v>72358</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1020,46 +1026,46 @@
         <v>1958</v>
       </c>
       <c r="D8" s="7">
-        <v>2119334</v>
+        <v>2249987</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>2871</v>
       </c>
       <c r="I8" s="7">
-        <v>2207401</v>
+        <v>2200238</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>4829</v>
       </c>
       <c r="N8" s="7">
-        <v>4326735</v>
+        <v>4450225</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1071,7 +1077,7 @@
         <v>1990</v>
       </c>
       <c r="D9" s="7">
-        <v>2160264</v>
+        <v>2288720</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1086,7 +1092,7 @@
         <v>2914</v>
       </c>
       <c r="I9" s="7">
-        <v>2245128</v>
+        <v>2233863</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1101,7 +1107,7 @@
         <v>4904</v>
       </c>
       <c r="N9" s="7">
-        <v>4405392</v>
+        <v>4522583</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1115,7 +1121,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1124,46 +1130,46 @@
         <v>9</v>
       </c>
       <c r="D10" s="7">
-        <v>8025</v>
+        <v>7936</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
       </c>
       <c r="I10" s="7">
-        <v>10827</v>
+        <v>10248</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>22</v>
       </c>
       <c r="N10" s="7">
-        <v>18852</v>
+        <v>18185</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1175,43 +1181,43 @@
         <v>671</v>
       </c>
       <c r="D11" s="7">
-        <v>663824</v>
+        <v>637681</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H11" s="7">
         <v>990</v>
       </c>
       <c r="I11" s="7">
-        <v>702234</v>
+        <v>649521</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M11" s="7">
         <v>1661</v>
       </c>
       <c r="N11" s="7">
-        <v>1366058</v>
+        <v>1287201</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>66</v>
@@ -1226,7 +1232,7 @@
         <v>680</v>
       </c>
       <c r="D12" s="7">
-        <v>671849</v>
+        <v>645617</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1241,7 +1247,7 @@
         <v>1003</v>
       </c>
       <c r="I12" s="7">
-        <v>713061</v>
+        <v>659769</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1256,7 +1262,7 @@
         <v>1683</v>
       </c>
       <c r="N12" s="7">
-        <v>1384910</v>
+        <v>1305386</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1279,7 +1285,7 @@
         <v>61</v>
       </c>
       <c r="D13" s="7">
-        <v>69933</v>
+        <v>65414</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>67</v>
@@ -1288,37 +1294,37 @@
         <v>68</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="H13" s="7">
         <v>65</v>
       </c>
       <c r="I13" s="7">
-        <v>54577</v>
+        <v>49148</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>70</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="M13" s="7">
         <v>126</v>
       </c>
       <c r="N13" s="7">
-        <v>124510</v>
+        <v>114562</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1330,46 +1336,46 @@
         <v>3300</v>
       </c>
       <c r="D14" s="7">
-        <v>3303815</v>
+        <v>3383862</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H14" s="7">
         <v>5275</v>
       </c>
       <c r="I14" s="7">
-        <v>3737471</v>
+        <v>3598080</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M14" s="7">
         <v>8575</v>
       </c>
       <c r="N14" s="7">
-        <v>7041286</v>
+        <v>6981942</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1381,7 +1387,7 @@
         <v>3361</v>
       </c>
       <c r="D15" s="7">
-        <v>3373748</v>
+        <v>3449276</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1396,7 +1402,7 @@
         <v>5340</v>
       </c>
       <c r="I15" s="7">
-        <v>3792048</v>
+        <v>3647228</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1411,7 +1417,7 @@
         <v>8701</v>
       </c>
       <c r="N15" s="7">
-        <v>7165796</v>
+        <v>7096504</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1425,7 +1431,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
